--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1439537.058792068</v>
+        <v>1436840.368908356</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12436699.94224556</v>
+        <v>12436666.27081003</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673422</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10618912.18594235</v>
+        <v>10619750.9429857</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2792495146819521</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>225.4031397636151</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>127.4695742187186</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>53.13424677085801</v>
+        <v>113.7209670167586</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>341.6453717426965</v>
       </c>
       <c r="G5" t="n">
-        <v>292.6983585284352</v>
+        <v>383.4773344784371</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9653033936935</v>
+        <v>309.9490894518053</v>
       </c>
       <c r="I5" t="n">
-        <v>99.3893572152007</v>
+        <v>99.32832091644353</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980477</v>
+        <v>143.3232867394217</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4754363151146</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1151380880864</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0198440937153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71.74256688885836</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8018133893748</v>
+        <v>85.36782735259276</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339768</v>
+        <v>97.33765040199579</v>
       </c>
       <c r="I6" t="n">
-        <v>36.31604239259337</v>
+        <v>36.28687735603346</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.384369338296352</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907028</v>
+        <v>143.0309654321256</v>
       </c>
       <c r="T6" t="n">
-        <v>193.950580588878</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.839898471748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,19 +1063,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>50.20784736137146</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6977565348686</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>127.7894128469696</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.559737650565</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422477989</v>
+        <v>1.928326488848271</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1453906001064</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4916274983621</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4230353577824</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>169.8512513837156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>244.8650164926691</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>118.6232835756525</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>3.945202867366326</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>288.7511433632822</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>19.53007201344963</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.15636898111879</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>201.4146274292354</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
-        <v>297.9570025593908</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>46.88007620574662</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7362075312412</v>
+        <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>86.64179915749273</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035195</v>
+        <v>8.282546271489849</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>122.4601525254633</v>
       </c>
       <c r="T12" t="n">
-        <v>189.655441187015</v>
+        <v>189.4832755487706</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7698485525558</v>
+        <v>225.7670384496465</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>9.633185806197401</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.63818461247364</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>286.1978462422561</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>150.0666667452917</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2715658672533</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>200.617369850355</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>7.729505493042169</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>18.22623717053455</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>200.6173698503563</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>142.4285301601176</v>
+        <v>86.27179222793407</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>148.905530700183</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>89.45659128798586</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>5.313812950988531</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695614</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.651155691888</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>88.2781095851806</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819324</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8253826161961921</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960835</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881303</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756234</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673025</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.703916880933</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703268</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909501</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>129.5380597272482</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>25.52471385612672</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>30.97191586387662</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>11.56087338713781</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.3840804899464</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>307.3840804899464</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899464</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>307.3840804899464</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>300.4385797407429</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672985</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.1393936243023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>573.7617370571244</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>307.3840804899464</v>
+        <v>827.1755808508577</v>
       </c>
       <c r="X2" t="n">
-        <v>307.3840804899464</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.3840804899464</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.0971104001205</v>
+        <v>131.5183722823837</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>131.5183722823837</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>131.5183722823837</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>131.5183722823837</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
         <v>242.5255548298714</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>926.0983743305515</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>690.9462660988088</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W3" t="n">
-        <v>436.7089093706072</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X3" t="n">
-        <v>228.8574091650744</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.0971104001205</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>773.1950127738074</v>
+        <v>758.3373915224934</v>
       </c>
       <c r="C4" t="n">
-        <v>773.1950127738074</v>
+        <v>589.4012085945865</v>
       </c>
       <c r="D4" t="n">
-        <v>623.0783733614717</v>
+        <v>439.2845691822508</v>
       </c>
       <c r="E4" t="n">
-        <v>475.1652797790786</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="F4" t="n">
-        <v>328.2753322811682</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1001.184563671825</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="S4" t="n">
-        <v>1001.184563671825</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="T4" t="n">
-        <v>1001.184563671825</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="U4" t="n">
-        <v>1001.184563671825</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="V4" t="n">
-        <v>1001.184563671825</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="W4" t="n">
-        <v>1001.184563671825</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="X4" t="n">
-        <v>773.1950127738074</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="Y4" t="n">
-        <v>773.1950127738074</v>
+        <v>939.9858563527331</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>746.7315520517809</v>
+        <v>1176.536890383914</v>
       </c>
       <c r="C5" t="n">
-        <v>746.7315520517809</v>
+        <v>1176.536890383914</v>
       </c>
       <c r="D5" t="n">
-        <v>746.7315520517809</v>
+        <v>1176.536890383914</v>
       </c>
       <c r="E5" t="n">
-        <v>746.7315520517809</v>
+        <v>1176.536890383914</v>
       </c>
       <c r="F5" t="n">
-        <v>739.7860513025774</v>
+        <v>831.4405552902811</v>
       </c>
       <c r="G5" t="n">
-        <v>444.1311436980974</v>
+        <v>444.0897123827688</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0348776438616</v>
+        <v>131.0098240476119</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749723</v>
+        <v>30.67818675827497</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281396</v>
+        <v>93.6884022714421</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452976</v>
+        <v>238.862899858299</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192545</v>
+        <v>455.8664631799365</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494218</v>
+        <v>728.9941769296669</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.9839607302</v>
+        <v>1011.155191012934</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145367</v>
+        <v>1264.256574219954</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739596</v>
+        <v>1445.771748220735</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374861</v>
+        <v>1533.909337913748</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374861</v>
+        <v>1533.909337913748</v>
       </c>
       <c r="S5" t="n">
-        <v>1387.271938094005</v>
+        <v>1389.138341207262</v>
       </c>
       <c r="T5" t="n">
-        <v>1387.271938094005</v>
+        <v>1176.536890383914</v>
       </c>
       <c r="U5" t="n">
-        <v>1133.620283459574</v>
+        <v>1176.536890383914</v>
       </c>
       <c r="V5" t="n">
-        <v>1133.620283459574</v>
+        <v>1176.536890383914</v>
       </c>
       <c r="W5" t="n">
-        <v>1133.620283459574</v>
+        <v>1176.536890383914</v>
       </c>
       <c r="X5" t="n">
-        <v>1133.620283459574</v>
+        <v>1176.536890383914</v>
       </c>
       <c r="Y5" t="n">
-        <v>746.7315520517809</v>
+        <v>1176.536890383914</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>449.3616881828</v>
+        <v>251.8825858599134</v>
       </c>
       <c r="C6" t="n">
-        <v>449.3616881828</v>
+        <v>251.8825858599134</v>
       </c>
       <c r="D6" t="n">
-        <v>449.3616881828</v>
+        <v>251.8825858599134</v>
       </c>
       <c r="E6" t="n">
-        <v>449.3616881828</v>
+        <v>251.8825858599134</v>
       </c>
       <c r="F6" t="n">
-        <v>302.8271302096849</v>
+        <v>251.8825858599134</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6535813315286</v>
+        <v>165.6524572209308</v>
       </c>
       <c r="H6" t="n">
-        <v>67.32445863112689</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749723</v>
+        <v>30.67818675827497</v>
       </c>
       <c r="J6" t="n">
-        <v>69.88900179495174</v>
+        <v>70.50414779342445</v>
       </c>
       <c r="K6" t="n">
-        <v>179.8878138897267</v>
+        <v>180.6383779085199</v>
       </c>
       <c r="L6" t="n">
-        <v>374.1173326028525</v>
+        <v>375.0499828615881</v>
       </c>
       <c r="M6" t="n">
-        <v>620.1308878987891</v>
+        <v>621.2760242110846</v>
       </c>
       <c r="N6" t="n">
-        <v>887.0643348829759</v>
+        <v>888.427581122397</v>
       </c>
       <c r="O6" t="n">
-        <v>1109.036493992976</v>
+        <v>1110.599268204484</v>
       </c>
       <c r="P6" t="n">
-        <v>1267.855654846702</v>
+        <v>1269.578567846507</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374861</v>
+        <v>1533.909337913748</v>
       </c>
       <c r="R6" t="n">
-        <v>1532.079376374861</v>
+        <v>1529.480682016479</v>
       </c>
       <c r="S6" t="n">
-        <v>1387.587760525666</v>
+        <v>1385.004959357767</v>
       </c>
       <c r="T6" t="n">
-        <v>1191.678083163163</v>
+        <v>1385.004959357767</v>
       </c>
       <c r="U6" t="n">
-        <v>1191.678083163163</v>
+        <v>1156.883849790344</v>
       </c>
       <c r="V6" t="n">
-        <v>1191.678083163163</v>
+        <v>921.7317415586017</v>
       </c>
       <c r="W6" t="n">
-        <v>937.4407264349618</v>
+        <v>667.4943848304001</v>
       </c>
       <c r="X6" t="n">
-        <v>729.589226229429</v>
+        <v>459.6428846248673</v>
       </c>
       <c r="Y6" t="n">
-        <v>521.8289274644751</v>
+        <v>251.8825858599134</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.3210214136172</v>
+        <v>892.7445677774309</v>
       </c>
       <c r="C7" t="n">
-        <v>381.3848384857104</v>
+        <v>892.7445677774309</v>
       </c>
       <c r="D7" t="n">
-        <v>231.2681990733746</v>
+        <v>742.6279283650952</v>
       </c>
       <c r="E7" t="n">
-        <v>83.35510549098152</v>
+        <v>594.714834782702</v>
       </c>
       <c r="F7" t="n">
-        <v>32.64010815626287</v>
+        <v>447.8248872847917</v>
       </c>
       <c r="G7" t="n">
-        <v>32.64010815626287</v>
+        <v>279.4433150273486</v>
       </c>
       <c r="H7" t="n">
-        <v>32.64010815626287</v>
+        <v>150.3631000304096</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626287</v>
+        <v>32.62599129246514</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749723</v>
+        <v>30.67818675827497</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961747004</v>
+        <v>157.3778790199914</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914622</v>
+        <v>375.0362985406462</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437694</v>
+        <v>614.9157070573549</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630875</v>
+        <v>854.5259358182302</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109133</v>
+        <v>1059.828468603748</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016231</v>
+        <v>1211.979570281384</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767125</v>
+        <v>1233.886026315008</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.202138767125</v>
+        <v>1113.537146920961</v>
       </c>
       <c r="S7" t="n">
-        <v>1029.675242304133</v>
+        <v>1113.537146920961</v>
       </c>
       <c r="T7" t="n">
-        <v>805.0055096195041</v>
+        <v>1113.537146920961</v>
       </c>
       <c r="U7" t="n">
-        <v>805.0055096195041</v>
+        <v>1113.537146920961</v>
       </c>
       <c r="V7" t="n">
-        <v>550.3210214136172</v>
+        <v>1113.537146920961</v>
       </c>
       <c r="W7" t="n">
-        <v>550.3210214136172</v>
+        <v>1113.537146920961</v>
       </c>
       <c r="X7" t="n">
-        <v>550.3210214136172</v>
+        <v>1113.537146920961</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.3210214136172</v>
+        <v>892.7445677774309</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1217.950988797912</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1859.93196259204</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1501.666263985289</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>1115.878011387045</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>704.8921065974375</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>289.1873563217264</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4817,37 +4817,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>1981.556079034804</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>1981.556079034804</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>1981.556079034804</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X8" t="n">
-        <v>1608.090320773724</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y8" t="n">
-        <v>1217.950988797912</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="9">
@@ -4863,58 +4863,58 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>884.9085321458221</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.031492328576</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1739.316620925521</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2071.387056101683</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2318.56978993398</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.23183996938323</v>
+        <v>888.4518357083936</v>
       </c>
       <c r="C10" t="n">
-        <v>55.23183996938323</v>
+        <v>888.4518357083936</v>
       </c>
       <c r="D10" t="n">
-        <v>55.23183996938323</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>55.23183996938323</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>55.23183996938323</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253778</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V10" t="n">
-        <v>793.4311400478913</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W10" t="n">
-        <v>504.0139700109307</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X10" t="n">
-        <v>276.0244191129133</v>
+        <v>1109.244414851924</v>
       </c>
       <c r="Y10" t="n">
-        <v>55.23183996938323</v>
+        <v>888.4518357083936</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2017.088884830059</v>
+        <v>2330.350214717801</v>
       </c>
       <c r="C11" t="n">
-        <v>1648.126367889647</v>
+        <v>1961.38769777739</v>
       </c>
       <c r="D11" t="n">
-        <v>1289.860669282897</v>
+        <v>1603.12199917064</v>
       </c>
       <c r="E11" t="n">
-        <v>904.0724166846526</v>
+        <v>1217.333746572395</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0865118950451</v>
+        <v>806.3478417827878</v>
       </c>
       <c r="G11" t="n">
-        <v>78.51106622469187</v>
+        <v>391.8530338894379</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469187</v>
+        <v>100.1852123103651</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469187</v>
+        <v>80.45786684223413</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>317.388032074673</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420328</v>
+        <v>723.2234501947059</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1263.599934653017</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878112</v>
+        <v>1896.54233045867</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2544.340204328193</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687104</v>
+        <v>3142.702105990715</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856286</v>
+        <v>3618.889144608863</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3928.313032718606</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234594</v>
+        <v>4022.893342111706</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234594</v>
+        <v>3925.765696676233</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750374</v>
+        <v>3722.316578060844</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382982</v>
+        <v>3468.832312715611</v>
       </c>
       <c r="V11" t="n">
-        <v>3167.293815131072</v>
+        <v>3137.769425372041</v>
       </c>
       <c r="W11" t="n">
-        <v>3167.293815131072</v>
+        <v>3090.415813043003</v>
       </c>
       <c r="X11" t="n">
-        <v>2793.828056869992</v>
+        <v>2716.950054781923</v>
       </c>
       <c r="Y11" t="n">
-        <v>2403.688724894181</v>
+        <v>2716.950054781923</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5530399535777</v>
+        <v>941.5545302742961</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1000106724507</v>
+        <v>767.1015009931691</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1656010111994</v>
+        <v>618.1670913319178</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9296363264624</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>312.3950783533473</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2964087081428</v>
+        <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.82407519727438</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469187</v>
+        <v>80.45786684223413</v>
       </c>
       <c r="J12" t="n">
-        <v>196.812062379213</v>
+        <v>202.7540031635562</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376506</v>
+        <v>489.9324039036201</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649603</v>
+        <v>922.4017448696459</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.76371390885</v>
+        <v>1446.429935688258</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259917</v>
+        <v>1998.736238339039</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333046</v>
+        <v>2481.76880827124</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.889669173201</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.391145691522</v>
+        <v>2434.215892839358</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.819992977365</v>
+        <v>2242.818644810297</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.769640904077</v>
+        <v>2014.771131224795</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.617532672334</v>
+        <v>1779.619022993052</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.380175944132</v>
+        <v>1525.381666264851</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.5286757386</v>
+        <v>1317.530166059318</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.768376973646</v>
+        <v>1109.769867294364</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>424.6576373893868</v>
+        <v>1095.204435748095</v>
       </c>
       <c r="C13" t="n">
-        <v>255.7214544614799</v>
+        <v>926.2682528201885</v>
       </c>
       <c r="D13" t="n">
-        <v>255.7214544614799</v>
+        <v>776.1516134078529</v>
       </c>
       <c r="E13" t="n">
-        <v>255.7214544614799</v>
+        <v>628.2385198254598</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481491</v>
+        <v>481.3485723275494</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469187</v>
+        <v>313.9048461348011</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469187</v>
+        <v>169.9913866528136</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469187</v>
+        <v>80.45786684223413</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>143.5350566283905</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>377.0270927076824</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>731.3429449977134</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1115.308455583785</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1495.578740955087</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1830.803602510218</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2094.125701226119</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2193.0011931677</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2193.0011931677</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370156</v>
+        <v>2193.0011931677</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920202</v>
+        <v>2193.0011931677</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.397311360491</v>
+        <v>1903.912459589663</v>
       </c>
       <c r="V13" t="n">
-        <v>1123.712823154604</v>
+        <v>1649.227971383776</v>
       </c>
       <c r="W13" t="n">
-        <v>834.2956531176438</v>
+        <v>1497.645479721865</v>
       </c>
       <c r="X13" t="n">
-        <v>606.3061022196265</v>
+        <v>1497.645479721865</v>
       </c>
       <c r="Y13" t="n">
-        <v>606.3061022196265</v>
+        <v>1276.852900578335</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614633</v>
+        <v>1948.261951965433</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007882</v>
+        <v>1589.996253358683</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.208000760439</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200307</v>
+        <v>793.2220959708309</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364374</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608053</v>
@@ -5279,19 +5279,19 @@
         <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.937882512877</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
@@ -5303,25 +5303,25 @@
         <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.260941820543</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206858</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619166</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L15" t="n">
-        <v>372.2013186925061</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>964.2196729446337</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1586.31563634397</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220735</v>
+        <v>1015.754398433617</v>
       </c>
       <c r="C16" t="n">
-        <v>325.1228070941665</v>
+        <v>846.8182155057104</v>
       </c>
       <c r="D16" t="n">
-        <v>325.1228070941665</v>
+        <v>696.7015760933746</v>
       </c>
       <c r="E16" t="n">
-        <v>325.1228070941665</v>
+        <v>548.7884825109816</v>
       </c>
       <c r="F16" t="n">
-        <v>317.3152257880633</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156341</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861978</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5452,34 +5452,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>2190.286651548252</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1935.602163342365</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.489584893861</v>
+        <v>1646.184993305405</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958433</v>
+        <v>1418.195442407387</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523132</v>
+        <v>1197.402863263857</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965431</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358681</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.2220959708296</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820541</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.19805447697</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206856</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945776</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969964</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851667</v>
+        <v>494.0589900220728</v>
       </c>
       <c r="C19" t="n">
-        <v>696.7084350851667</v>
+        <v>494.0589900220727</v>
       </c>
       <c r="D19" t="n">
-        <v>546.591795672831</v>
+        <v>494.0589900220727</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156341</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861978</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>896.5000339958426</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154064</v>
+        <v>675.7074548523125</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251941</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.9745311434715</v>
+        <v>561.9183350635719</v>
       </c>
       <c r="C22" t="n">
-        <v>869.9745311434715</v>
+        <v>392.982152135665</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>392.982152135665</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>245.069058553272</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>98.17911105536187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015259</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>964.3593790373418</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.622995973711</v>
+        <v>743.5667998938117</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
@@ -6014,22 +6014,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.899304487674</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597672</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597672</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597672</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>265.0731740618569</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.10824923517</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258111</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602309</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396422</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359461</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614439</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179138</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6227,46 +6227,46 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876743</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597674</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474316</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
         <v>2035.089393279803</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708867</v>
+        <v>653.7474797708869</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429798</v>
+        <v>484.81129684298</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429798</v>
+        <v>484.81129684298</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429798</v>
+        <v>484.81129684298</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429798</v>
+        <v>484.81129684298</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
@@ -6622,31 +6622,31 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
         <v>1977.461080510509</v>
@@ -6664,7 +6664,7 @@
         <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011264</v>
+        <v>835.3959446011266</v>
       </c>
     </row>
     <row r="32">
@@ -6674,73 +6674,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098236</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819167</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G34" t="n">
-        <v>202.3036411041572</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
         <v>2035.089393279803</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188004</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782954</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925703</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490402</v>
       </c>
     </row>
     <row r="38">
@@ -7166,52 +7166,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591808</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400713</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121644</v>
+        <v>411.963121559762</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121644</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121644</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121644</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230616</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K40" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797742</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138412</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703111</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,19 +7406,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>631.7012443408905</v>
+        <v>733.4550657171308</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408905</v>
+        <v>564.5188827892239</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>414.4022433768882</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>266.4891497944951</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>119.5992022965847</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>119.5992022965847</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X43" t="n">
-        <v>983.340348461439</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179089</v>
+        <v>915.1035305473705</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7643,52 +7643,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876694</v>
+        <v>733.4550657171342</v>
       </c>
       <c r="C46" t="n">
-        <v>549.6145409888042</v>
+        <v>564.5188827892273</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888042</v>
+        <v>414.4022433768916</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908938</v>
@@ -7798,58 +7798,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797781</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831769</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588921</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.896109690904</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179091</v>
+        <v>915.1035305473739</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>97.32166909127223</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752791</v>
+        <v>34.48513033188158</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>20.82428212787423</v>
+        <v>21.32864171281843</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>30.3692565058949</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>105.1672460959153</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238021</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>29.79525591074406</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>302.3608925116664</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>135.7878622167339</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034036</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.39811087628537</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.4529121465557</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>136.4563315912993</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.29152613729104</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>50.2915261372913</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>137.6915425298891</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>267.9592143778859</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>50.29152613729005</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>4.005432486451554</v>
+        <v>60.1621704186351</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>50.29152613729121</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>59.1588817302265</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.2282399261784</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.5956654067398</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>77.24602870708824</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>145.608580030373</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>138.4949402405075</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>32.89260457060041</v>
+        <v>57.22910392194163</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016416</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>191.8807364711618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194208</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.29392045468913</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>114.7699989900971</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>136.2749052347512</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>134.8730892594314</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>941357.1568271088</v>
+        <v>941363.2176855042</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840167.0727373896</v>
+        <v>850217.4358543337</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913993.7344630066</v>
+        <v>913993.7344630067</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>919018.9160214786</v>
+        <v>913993.7344630065</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>919018.9160214788</v>
+        <v>913993.7344630065</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214788</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
-        <v>460660.0452039821</v>
+        <v>466243.5802689509</v>
       </c>
       <c r="F2" t="n">
+        <v>501674.8572737692</v>
+      </c>
+      <c r="G2" t="n">
         <v>501674.8572737693</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>501674.8572737692</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062539</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103538</v>
+        <v>132571.3256199666</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196358</v>
+        <v>265633.5342698678</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357071</v>
+        <v>348407.0423979652</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051373</v>
+        <v>143852.0300046379</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557904</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>10818.91345744888</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648368</v>
+        <v>30823.28075181883</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.3803795084</v>
+        <v>65071.59368054881</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456832</v>
+        <v>90993.97560824333</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.406558489</v>
+        <v>37822.10612282927</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252122.0652631775</v>
+        <v>252122.0652631774</v>
       </c>
       <c r="C4" t="n">
-        <v>216676.2274925561</v>
+        <v>216540.3069618278</v>
       </c>
       <c r="D4" t="n">
-        <v>141542.8205525801</v>
+        <v>141542.82055258</v>
       </c>
       <c r="E4" t="n">
-        <v>11677.85525949978</v>
+        <v>11690.45046418077</v>
       </c>
       <c r="F4" t="n">
         <v>11770.44359558047</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11770.44359558047</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11770.44359558047</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26448,16 +26448,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="N4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11776.97621680578</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680583</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589727</v>
+        <v>72576.91021638169</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214715</v>
+        <v>88006.19635167006</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-482106.7428934597</v>
+        <v>-482106.7428934596</v>
       </c>
       <c r="C6" t="n">
-        <v>91869.45935637</v>
+        <v>91462.56336700101</v>
       </c>
       <c r="D6" t="n">
-        <v>12557.5949531165</v>
+        <v>13036.97890288424</v>
       </c>
       <c r="E6" t="n">
-        <v>37701.34874662808</v>
+        <v>17952.26095155001</v>
       </c>
       <c r="F6" t="n">
-        <v>223240.9380592132</v>
+        <v>245864.3501641468</v>
       </c>
       <c r="G6" t="n">
-        <v>380399.8825299616</v>
+        <v>389716.3801687848</v>
       </c>
       <c r="H6" t="n">
-        <v>391567.1187655407</v>
+        <v>389716.3801687846</v>
       </c>
       <c r="I6" t="n">
-        <v>391567.1187655407</v>
+        <v>380713.4673826561</v>
       </c>
       <c r="J6" t="n">
-        <v>322567.9643464268</v>
+        <v>322533.226420991</v>
       </c>
       <c r="K6" t="n">
-        <v>360861.5813990572</v>
+        <v>360709.1000882863</v>
       </c>
       <c r="L6" t="n">
-        <v>326379.7383860325</v>
+        <v>326460.7871595561</v>
       </c>
       <c r="M6" t="n">
-        <v>306637.5244209725</v>
+        <v>300538.4052318618</v>
       </c>
       <c r="N6" t="n">
-        <v>347784.7122070519</v>
+        <v>353710.274717276</v>
       </c>
       <c r="O6" t="n">
-        <v>388543.8207883161</v>
+        <v>391532.3808401051</v>
       </c>
       <c r="P6" t="n">
-        <v>391567.1187655408</v>
+        <v>391532.3808401053</v>
       </c>
     </row>
   </sheetData>
@@ -26738,22 +26738,22 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605224</v>
+        <v>717.150838536363</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1232.028328053767</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937153</v>
+        <v>383.4773344784371</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086485</v>
+        <v>1005.723335527927</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26960,25 +26960,25 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>102.702003891044</v>
+        <v>103.0958247668847</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570167</v>
+        <v>216.9140535811764</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770173</v>
+        <v>297.9634359362279</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218292</v>
+        <v>126.0127206626182</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,46 +27009,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922091</v>
+        <v>119.763454476931</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063234</v>
+        <v>257.107497621602</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086097</v>
+        <v>365.1385034278875</v>
       </c>
       <c r="F4" t="n">
-        <v>178.756962517358</v>
+        <v>154.4219547980799</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922091</v>
+        <v>119.7634544769312</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063234</v>
+        <v>257.1074976216017</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086095</v>
+        <v>365.1385034278877</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173583</v>
+        <v>154.4219547980797</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922091</v>
+        <v>119.763454476931</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063234</v>
+        <v>257.107497621602</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086097</v>
+        <v>365.1385034278875</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517358</v>
+        <v>154.4219547980799</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>50.4797526277618</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27430,22 +27430,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>250.8689183636005</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>123.8378289537979</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>35.7521631299433</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27512,7 +27512,7 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>98.38491328483603</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>74.37035611280591</v>
+        <v>13.78363586690537</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>65.23067399901493</v>
       </c>
       <c r="G5" t="n">
-        <v>119.7229437398234</v>
+        <v>28.9423845903206</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1150114321263</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.218094562338251</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.79061676100898</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,10 +27704,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>50.43313895036987</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677483</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9471662361903</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399542011172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>95.2132006615598</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6984667036611</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.735559994784</v>
+        <v>22.93983310164107</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629795</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1773223714491</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4792511931328</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4200010002144</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>286.2484899297496</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>131.1673011786898</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6.180233635792916</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>29.9921894425599</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>162.3613971774379</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-6.169938931625393e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.473929855888288e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.888534022029489e-12</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.120263810372943e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29955,7 +29955,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-3.799099314556823e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3.467448550509289e-12</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88143524687647</v>
+        <v>2.883018446377337</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207365</v>
+        <v>29.52571266396191</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552052</v>
+        <v>111.1475686539624</v>
       </c>
       <c r="J5" t="n">
-        <v>244.558214784582</v>
+        <v>244.6925868632187</v>
       </c>
       <c r="K5" t="n">
-        <v>366.529368784863</v>
+        <v>366.7307576983714</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214589</v>
+        <v>454.961933476692</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930982</v>
+        <v>506.2328127724549</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882861</v>
+        <v>514.4241889332245</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521582</v>
+        <v>485.7561742570599</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948953</v>
+        <v>414.5816563621193</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161316</v>
+        <v>311.3335582512308</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266042</v>
+        <v>181.1004074822505</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819762</v>
+        <v>65.69678284682362</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320175</v>
+        <v>12.6204132490168</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501175</v>
+        <v>0.2306414757101869</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835841</v>
+        <v>1.542550860248026</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309878</v>
+        <v>14.89779383450068</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882171</v>
+        <v>53.10975549538161</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342011</v>
+        <v>145.7372284236962</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812024</v>
+        <v>249.088136060314</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234355</v>
+        <v>334.9297383183269</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249846</v>
+        <v>390.8472070023178</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118049</v>
+        <v>401.1917695695075</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757581</v>
+        <v>367.0120899819065</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160738</v>
+        <v>294.5595585678885</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584136</v>
+        <v>196.9052641958709</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096565</v>
+        <v>95.77346481434678</v>
       </c>
       <c r="S6" t="n">
-        <v>28.636471413135</v>
+        <v>28.65220567171222</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943583</v>
+        <v>6.217562458631297</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576211</v>
+        <v>0.1014836092268439</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797663</v>
+        <v>1.293222823590163</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265559</v>
+        <v>11.49792655882891</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427883</v>
+        <v>38.89073727669327</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419479</v>
+        <v>91.4308536278245</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574012</v>
+        <v>150.2489789589298</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232817</v>
+        <v>192.2669641544866</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970555</v>
+        <v>202.7185558833198</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291735</v>
+        <v>197.8983617226657</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981279</v>
+        <v>182.7911678289078</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402555</v>
+        <v>156.4094222276684</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667389</v>
+        <v>108.2897766189908</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572037</v>
+        <v>58.14800077706312</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861018</v>
+        <v>22.53734684383947</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499105</v>
+        <v>5.525588428067057</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0705006902616908</v>
+        <v>0.07053942674128169</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148565</v>
+        <v>4.952877700718659</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>50.72365875248498</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>190.9458175569563</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>420.3693037513707</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726058</v>
+        <v>630.0246168227916</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216974</v>
+        <v>781.6012477561604</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857428</v>
+        <v>869.6819865663159</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898389</v>
+        <v>883.7543503334829</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294409</v>
+        <v>834.5041726969616</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615138</v>
+        <v>712.2300044604697</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895589</v>
+        <v>534.8550718034825</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>311.1212038677688</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>112.8637006051266</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.68122213489594</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188519</v>
+        <v>0.3962302160574926</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.650023196191122</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.59364507900374</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059648</v>
+        <v>91.23983372851015</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783042</v>
+        <v>250.369077496285</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>427.9206316410902</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256417</v>
+        <v>575.3920979273751</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845331</v>
+        <v>671.4554387893031</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147142</v>
+        <v>689.2268662760411</v>
       </c>
       <c r="O12" t="n">
-        <v>388.6056839122515</v>
+        <v>630.5079312446483</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205472</v>
+        <v>210.887749163029</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697588</v>
+        <v>49.22301857837454</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.68145314605106</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.1743436313283634</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.221690427637941</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.75284762027189</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691792</v>
+        <v>66.81229031478465</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>157.0735132340024</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>258.1200333201171</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>330.3047750326445</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>348.2600731251001</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973095</v>
+        <v>339.9792269857226</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>314.0258433537701</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>268.703358629956</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>186.0362775361189</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570612</v>
+        <v>99.89528050088411</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.71800499801756</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826906</v>
+        <v>9.492677281725745</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1211831142347969</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>420.7661933823243</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504301</v>
@@ -32090,10 +32090,10 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>424.0909547148526</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,13 +34442,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>125.9385470877686</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789571</v>
+        <v>63.64668233653242</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398825</v>
+        <v>146.6409066533909</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514716</v>
+        <v>219.1955185067047</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658255</v>
+        <v>275.8865795451821</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916951</v>
+        <v>285.0111253366336</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304715</v>
+        <v>255.6579628353731</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396257</v>
+        <v>183.3486606068498</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168207</v>
+        <v>89.02786837678136</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>39.64385279540861</v>
+        <v>40.22824346984796</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1099112068434</v>
+        <v>111.246697085955</v>
       </c>
       <c r="L6" t="n">
-        <v>196.1914330435613</v>
+        <v>196.3753585384528</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029663</v>
+        <v>248.7131730802995</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284716</v>
+        <v>269.8500574861741</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313136</v>
+        <v>224.415845537462</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017436</v>
+        <v>160.5851511535582</v>
       </c>
       <c r="Q6" t="n">
-        <v>266.8926480082412</v>
+        <v>267.0007778456985</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315183</v>
+        <v>127.9794871330469</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835978</v>
+        <v>219.8569894148027</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588961</v>
+        <v>242.3024328451604</v>
       </c>
       <c r="N7" t="n">
-        <v>241.921858908402</v>
+        <v>242.0305341018943</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121676</v>
+        <v>207.3762957429475</v>
       </c>
       <c r="P7" t="n">
-        <v>153.602089805149</v>
+        <v>153.6879814925618</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504449</v>
+        <v>22.12773336729643</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>328.0496171437452</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>221.6479684267698</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040318</v>
+        <v>239.3233992246844</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276252</v>
+        <v>409.934765777811</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>545.8348327861731</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584701</v>
+        <v>639.3357533390432</v>
       </c>
       <c r="N11" t="n">
-        <v>640.096770593248</v>
+        <v>654.341286736892</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077542</v>
+        <v>604.4059612752749</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062443</v>
+        <v>480.9970087052001</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151094</v>
+        <v>312.549381929033</v>
       </c>
       <c r="R11" t="n">
-        <v>90.5209569215661</v>
+        <v>95.53566605363665</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116375</v>
+        <v>123.5314508296183</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>290.0791926667312</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457675</v>
+        <v>436.8377181475009</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625148</v>
+        <v>529.3214048672849</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313809</v>
+        <v>557.8851541927078</v>
       </c>
       <c r="O12" t="n">
-        <v>246.009439467807</v>
+        <v>487.9116868002038</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062169</v>
+        <v>76.91334174869874</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701844</v>
+        <v>63.71433311732963</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>235.8505414942342</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112338</v>
+        <v>357.8948002929607</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>387.8439500869407</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>384.1113993649512</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>338.6109712678098</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>265.9819178948495</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998361</v>
+        <v>99.87423428442447</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>282.2118136024501</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
@@ -35738,10 +35738,10 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>281.4947102704082</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060475</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.342014319135</v>
       </c>
       <c r="M46" t="n">
         <v>426.2724270010452</v>
